--- a/biology/Zoologie/Carpophage_meunier/Carpophage_meunier.xlsx
+++ b/biology/Zoologie/Carpophage_meunier/Carpophage_meunier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ducula pistrinaria
 Le Carpophage meunier (Ducula pistrinaria) est une espèce d'oiseau appartenant à la famille des Columbidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 38 à 44 cm de longueur pour une masse de 470 à 500 g. Il ne présente pas de dimorphisme sexuel.
 Son plumage présente une dominante grise et verte. La face et la gorge sont gris rose. La tête, la nuque et les parties inférieures sont grises. Le dos, les ailes et la queue sont vert foncé. Les sous-caudales sont châtain foncé. Les iris sont brun rouge avec des cercles oculaires blanc crème. Le bec est grisâtre foncé. Les pattes sont rouge foncé.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit sur l'archipel Bismarck et les îles Salomon (Nouvelle-Guinée).
 </t>
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peuple les mangroves, les forêts littorales, primaires et secondaires.
 </t>
@@ -606,7 +624,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peut constituer des groupes importants.
 </t>
@@ -637,7 +657,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il consomme des fruits dans la canopée et les grands arbres isolés.
 </t>
@@ -668,7 +690,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid est un important amas de brindilles. La femelle y pond un œuf unique.
 </t>
@@ -699,7 +723,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par quatre sous-espèces :
 Ducula pistrinaria pistrinaria (Bonaparte, 1855) ;
